--- a/TestList/7.0QHKJ-CreditSaleStatistic.xlsx
+++ b/TestList/7.0QHKJ-CreditSaleStatistic.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24645" windowHeight="12015"/>
+    <workbookView windowWidth="24525" windowHeight="12090"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="38">
   <si>
     <t xml:space="preserve">序号
 （id）   </t>
@@ -51,7 +51,7 @@
     <t>URL</t>
   </si>
   <si>
-    <t>http://webqh.kj2100.com/admin</t>
+    <t>https://webqh.kj2100.com/admin</t>
   </si>
   <si>
     <t>空</t>
@@ -111,7 +111,16 @@
     <t>Class opening menu</t>
   </si>
   <si>
-    <t>http://webqh.kj2100.com/admin/creditSaleStatistic</t>
+    <t>https://webqh.kj2100.com/admin/userCreditChooseCourseStatistic</t>
+  </si>
+  <si>
+    <t>wait</t>
+  </si>
+  <si>
+    <t>等待</t>
+  </si>
+  <si>
+    <t>null</t>
   </si>
   <si>
     <t>Class opening query button</t>
@@ -134,10 +143,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -148,55 +157,89 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -210,83 +253,49 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -301,31 +310,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -337,151 +478,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -495,21 +504,49 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -549,46 +586,18 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -600,10 +609,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -612,137 +621,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="26" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -750,6 +759,7 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1098,10 +1108,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E24" sqref="E24"/>
+      <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
@@ -1276,7 +1286,7 @@
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="2">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>28</v>
@@ -1296,19 +1306,19 @@
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="2">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B10" t="s">
         <v>30</v>
       </c>
-      <c r="C10" s="2" t="s">
-        <v>20</v>
+      <c r="C10" s="3" t="s">
+        <v>31</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>13</v>
       </c>
       <c r="E10" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F10" t="s">
         <v>10</v>
@@ -1316,21 +1326,41 @@
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="2">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>32</v>
-      </c>
-      <c r="C11" t="s">
         <v>33</v>
       </c>
-      <c r="D11" t="s">
+      <c r="C11" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D11" s="2" t="s">
         <v>13</v>
       </c>
       <c r="E11" t="s">
         <v>34</v>
       </c>
       <c r="F11" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="2">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>35</v>
+      </c>
+      <c r="C12" t="s">
+        <v>36</v>
+      </c>
+      <c r="D12" t="s">
+        <v>13</v>
+      </c>
+      <c r="E12" t="s">
+        <v>37</v>
+      </c>
+      <c r="F12" t="s">
         <v>10</v>
       </c>
     </row>

--- a/TestList/7.0QHKJ-CreditSaleStatistic.xlsx
+++ b/TestList/7.0QHKJ-CreditSaleStatistic.xlsx
@@ -126,7 +126,7 @@
     <t>Class opening query button</t>
   </si>
   <si>
-    <t>//a[contains(@has-permission,'creditSaleStatistic/search')]</t>
+    <t>//a[contains(@has-permission,'userCreditChooseCourseStatistic/search')]</t>
   </si>
   <si>
     <t>Class opening query result</t>
@@ -143,10 +143,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -154,13 +154,6 @@
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -172,6 +165,63 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -180,15 +230,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -201,20 +253,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -238,58 +285,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -310,55 +310,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -370,127 +478,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -501,6 +501,39 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -522,8 +555,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -539,30 +572,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -584,15 +593,6 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -609,10 +609,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -621,133 +621,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="26" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="18" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1111,7 +1111,7 @@
   <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E25" sqref="E25"/>
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
